--- a/data/Copy of APAC Country Details.xlsx
+++ b/data/Copy of APAC Country Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Excis-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBC648A7-D51A-4705-AD04-B60432ECA66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86BA24FE-D766-4D29-A0C0-BB163AA61F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="124">
   <si>
     <t>Amount of annual leave required :</t>
   </si>
@@ -362,9 +362,6 @@
   </si>
   <si>
     <t>Labour Laws: Thailand</t>
-  </si>
-  <si>
-    <t>South korea</t>
   </si>
   <si>
     <t>15 Days (The days of leave increase every two other years from 4th year up to the ceiling of 25 days)</t>
@@ -457,9 +454,6 @@
   </si>
   <si>
     <t>Labour Standards: Japan</t>
-  </si>
-  <si>
-    <t>Hongkong</t>
   </si>
   <si>
     <t>2 days per month during first 12 month of employment and four paid sickness days for each completed month after that.  A maximum of 120 days can accumulated throughout the whole employment period.</t>
@@ -618,9 +612,6 @@
 In this case, the employer must still settle unpaid wages, unused annual leave, and any other benefits owed up to the termination date.</t>
   </si>
   <si>
-    <t xml:space="preserve">Vietnam </t>
-  </si>
-  <si>
     <t>Employees are given 12 days of paid annual leave. An employee must be given one additional annual leave day for every five years of consecutive service for an employer.</t>
   </si>
   <si>
@@ -709,6 +700,18 @@
 Annal Leave : Mandated
 for short term project have wavier agreement signed </t>
     </r>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
 </sst>
 </file>
@@ -1271,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
@@ -1505,25 +1508,25 @@
     </row>
     <row r="8" spans="1:14" ht="150">
       <c r="A8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>21</v>
@@ -1532,28 +1535,28 @@
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
     </row>
     <row r="9" spans="1:14" ht="75">
       <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>21</v>
@@ -1562,133 +1565,133 @@
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
       <c r="L9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="135">
       <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
       <c r="L10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="135">
       <c r="A11" s="3" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="135">
       <c r="A12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="E12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="F12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="10"/>
       <c r="L12" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="1:14" ht="165">
       <c r="A13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="D13" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1696,48 +1699,48 @@
       <c r="L13" s="9"/>
       <c r="M13" s="11"/>
       <c r="N13" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="98.1" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" ht="409.5">
       <c r="A15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1748,31 +1751,31 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="60">
       <c r="A16" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1802,39 +1805,39 @@
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="G1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>108</v>
-      </c>
-      <c r="H1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1844,57 +1847,57 @@
     </row>
     <row r="3" spans="1:10" ht="12.75">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12.75">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="12.75">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="12.75">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="12.75">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="12.75">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/Copy of APAC Country Details.xlsx
+++ b/data/Copy of APAC Country Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Excis-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86BA24FE-D766-4D29-A0C0-BB163AA61F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D13553-F282-4C39-B37A-ADAE50A6BCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -876,15 +876,9 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1272,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1"/>
@@ -1295,498 +1289,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.75">
-      <c r="A2" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="25" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="5" t="s">
+    <row r="2" spans="1:14" ht="18">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="26"/>
-    </row>
-    <row r="4" spans="1:14" ht="83.1" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" ht="83.1" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="7" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="120">
-      <c r="A5" s="6" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" ht="120">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="7" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N4" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="150">
-      <c r="A6" s="3" t="s">
+    <row r="5" spans="1:14" ht="150">
+      <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="96" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="96" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="G6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="150">
+      <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="150">
-      <c r="A8" s="3" t="s">
-        <v>120</v>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" ht="75">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="1:14" ht="75">
-      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c r="N8" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="9" t="s">
+    </row>
+    <row r="9" spans="1:14" ht="135">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="13" t="s">
-        <v>55</v>
+      <c r="M9" s="9"/>
+      <c r="N9" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="135">
-      <c r="A10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="135">
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="135">
-      <c r="A11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="165">
+      <c r="A12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="135">
-      <c r="A12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="98.1" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="165">
-      <c r="A13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="98.1" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="7" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-    </row>
-    <row r="15" spans="1:14" ht="409.5">
-      <c r="A15" s="3" t="s">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="409.5">
+      <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="20" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="60">
-      <c r="A16" s="3" t="s">
+    <row r="15" spans="1:14" ht="60">
+      <c r="A15" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9" t="s">
+      <c r="H15" s="5"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="N7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="N9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="N10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="N11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1804,22 +1788,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>104</v>
       </c>
       <c r="G1" t="s">
@@ -1839,11 +1823,11 @@
       <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
       <c r="A3" t="s">
